--- a/data/trans_bre/CoPsoQ_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R-Dificultad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>4.84415042020078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.508692437937247</v>
+        <v>-7.508692437937242</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.06631734943781049</v>
@@ -627,7 +627,7 @@
         <v>0.2514522181276135</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.2150587201097403</v>
+        <v>-0.2150587201097402</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.298396379989212</v>
+        <v>-9.041366474824796</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.24507824097171</v>
+        <v>-1.968596372969829</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-33.96854198347315</v>
+        <v>-36.38643105539954</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3639860611118543</v>
+        <v>-0.3495756152349098</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1090258256899171</v>
+        <v>-0.09737519062788927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.706355774560033</v>
+        <v>-0.6916096981425143</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.00887606747399</v>
+        <v>6.899652350269868</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.90909811010583</v>
+        <v>12.00528084519508</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.72356921263825</v>
+        <v>15.73793380248745</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.3202665789870836</v>
+        <v>0.364539134014889</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7661424325295193</v>
+        <v>0.7668847410575743</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9232941800649881</v>
+        <v>0.9149813961171936</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.947767491258712</v>
+        <v>-5.926609756662829</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.003759127966889</v>
+        <v>-0.5982481215098293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.38371635964261</v>
+        <v>-13.63510748326607</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2270731104021583</v>
+        <v>-0.2221511501133797</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06532155347373729</v>
+        <v>-0.04360903988680469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5620803862900235</v>
+        <v>-0.5782733555973403</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.59610933650451</v>
+        <v>8.44921369409874</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.83326686111335</v>
+        <v>11.67392630719786</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.730210902152165</v>
+        <v>8.375602099018463</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4122615854454782</v>
+        <v>0.4173032065704466</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8064528974141821</v>
+        <v>0.8319970560853841</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6845085510638601</v>
+        <v>0.7713810002338283</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.48888442491303</v>
+        <v>-1.978588249389757</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.41130140130653</v>
+        <v>-14.16407962789074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.2221794407268</v>
+        <v>-13.30865020813109</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1101730818947773</v>
+        <v>-0.09885534347218951</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5130035691811944</v>
+        <v>-0.5002796969357388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3498854516779311</v>
+        <v>-0.3530509345972866</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.47468571591402</v>
+        <v>10.93390287651407</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.43789215528852</v>
+        <v>-2.201873045680487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.53841744593364</v>
+        <v>9.938542405976717</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6128293300404939</v>
+        <v>0.6152188395035945</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.09791365261386309</v>
+        <v>-0.09603565620470336</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4693423797947049</v>
+        <v>0.4378443618852131</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>2.699456214994295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.696933858869303</v>
+        <v>-0.6969338588692975</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.008425249803470503</v>
@@ -873,7 +873,7 @@
         <v>0.09208236598518377</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.01664967469238034</v>
+        <v>-0.0166496746923802</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.442503360700403</v>
+        <v>-8.275508845420514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.596548502648315</v>
+        <v>-5.786810840278466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-11.90628367301368</v>
+        <v>-11.37399843811699</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3133753110728514</v>
+        <v>-0.2944736845211653</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.20411243211998</v>
+        <v>-0.1745974734110986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2558720460487033</v>
+        <v>-0.2352532376212145</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.894719545783856</v>
+        <v>9.383651246398058</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.42472510894396</v>
+        <v>12.26888001077043</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.28293258069437</v>
+        <v>11.79068420416379</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4457934955861695</v>
+        <v>0.4722785140408515</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4102631994232219</v>
+        <v>0.4888911358074962</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2878323611499546</v>
+        <v>0.3247730779477286</v>
       </c>
     </row>
     <row r="16">
@@ -955,7 +955,7 @@
         <v>0.02546435364176349</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.08540803375644269</v>
+        <v>-0.08540803375644268</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.682806357933927</v>
+        <v>-2.192474938166686</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.983613253221401</v>
+        <v>-2.753809869734376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.1617541558848</v>
+        <v>-9.66508568154784</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1124506130894919</v>
+        <v>-0.08956020235878712</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1237724616019436</v>
+        <v>-0.114127375023365</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2761793769177594</v>
+        <v>-0.2732370415463057</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.708307636030665</v>
+        <v>5.257012457270716</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.330448092595553</v>
+        <v>4.178674364696653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.220551507001508</v>
+        <v>3.807920734922022</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2193589142457043</v>
+        <v>0.2541896862131768</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2083808772518212</v>
+        <v>0.1961627583270723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1495655436292894</v>
+        <v>0.1281140731417645</v>
       </c>
     </row>
     <row r="19">
